--- a/Ch_14/Chapter 14 HW Solved.xlsx
+++ b/Ch_14/Chapter 14 HW Solved.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vafa.saboorideilami/Documents/5504 Spring 2025/Ch_14/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA4D912-CA6A-E64C-9DEB-8E606841D042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F21537D-FEF8-3145-8B07-AA15FACC49FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11020" yWindow="-27420" windowWidth="28580" windowHeight="20380" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="14-3" sheetId="10" r:id="rId1"/>
@@ -456,11 +456,18 @@
     <numFmt numFmtId="169" formatCode="0.0000000000"/>
     <numFmt numFmtId="170" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -782,126 +789,126 @@
   </cellStyleXfs>
   <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="5" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="170" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="170" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11129,9 +11136,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5429250" cy="2924175"/>
     <xdr:graphicFrame macro="">
@@ -12320,7 +12327,7 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="5429250" cy="2009775"/>
+    <xdr:ext cx="5429250" cy="2755900"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="21" name="Chart 21">
@@ -12766,8 +12773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -12855,10 +12862,10 @@
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="61" t="s">
+      <c r="A10" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="62"/>
+      <c r="B10" s="67"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
@@ -14131,8 +14138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="L47" sqref="L47:L48"/>
+    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
+      <selection activeCell="L57" sqref="L57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14208,10 +14215,10 @@
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="61" t="s">
+      <c r="A10" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="62"/>
+      <c r="B10" s="67"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
@@ -14524,7 +14531,7 @@
       <c r="D41" s="33">
         <v>0.82839114936258018</v>
       </c>
-      <c r="K41" s="76" t="s">
+      <c r="K41" s="65" t="s">
         <v>92</v>
       </c>
     </row>
@@ -14535,7 +14542,7 @@
       <c r="D42" s="33">
         <v>-0.5773179697917068</v>
       </c>
-      <c r="K42" s="76" t="s">
+      <c r="K42" s="65" t="s">
         <v>93</v>
       </c>
     </row>
@@ -15633,10 +15640,10 @@
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="61" t="s">
+      <c r="A13" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="62"/>
+      <c r="B13" s="67"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
@@ -16158,13 +16165,13 @@
         <f t="shared" ca="1" si="2"/>
         <v>=1/8+C53/$C$54</v>
       </c>
-      <c r="F53" s="63" t="s">
+      <c r="F53" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="G53" s="64"/>
-      <c r="H53" s="64"/>
-      <c r="I53" s="64"/>
-      <c r="J53" s="65"/>
+      <c r="G53" s="69"/>
+      <c r="H53" s="69"/>
+      <c r="I53" s="69"/>
+      <c r="J53" s="70"/>
     </row>
     <row r="54" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
@@ -16178,18 +16185,18 @@
         <f>SUM(C46:C53)</f>
         <v>226</v>
       </c>
-      <c r="F54" s="66"/>
-      <c r="G54" s="67"/>
-      <c r="H54" s="67"/>
-      <c r="I54" s="67"/>
-      <c r="J54" s="68"/>
+      <c r="F54" s="71"/>
+      <c r="G54" s="72"/>
+      <c r="H54" s="72"/>
+      <c r="I54" s="72"/>
+      <c r="J54" s="73"/>
     </row>
     <row r="55" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F55" s="69"/>
-      <c r="G55" s="70"/>
-      <c r="H55" s="70"/>
-      <c r="I55" s="70"/>
-      <c r="J55" s="71"/>
+      <c r="F55" s="74"/>
+      <c r="G55" s="75"/>
+      <c r="H55" s="75"/>
+      <c r="I55" s="75"/>
+      <c r="J55" s="76"/>
     </row>
     <row r="56" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="57" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -17211,10 +17218,10 @@
     </row>
     <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="61" t="s">
+      <c r="A37" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="62"/>
+      <c r="B37" s="67"/>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
@@ -18160,10 +18167,10 @@
     </row>
     <row r="127" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="128" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="61" t="s">
+      <c r="A128" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B128" s="62"/>
+      <c r="B128" s="67"/>
     </row>
     <row r="129" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
@@ -19871,10 +19878,10 @@
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="61" t="s">
+      <c r="A24" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="62"/>
+      <c r="B24" s="67"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
@@ -23875,7 +23882,7 @@
   <dimension ref="A1:M1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -23983,10 +23990,10 @@
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="61" t="s">
+      <c r="A13" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="62"/>
+      <c r="B13" s="67"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
@@ -25495,10 +25502,10 @@
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="61" t="s">
+      <c r="A19" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="62"/>
+      <c r="B19" s="67"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
@@ -27007,10 +27014,10 @@
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="61" t="s">
+      <c r="A15" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="62"/>
+      <c r="B15" s="67"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
@@ -28420,10 +28427,10 @@
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="61" t="s">
+      <c r="A10" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="62"/>
+      <c r="B10" s="67"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
@@ -29793,10 +29800,10 @@
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="61" t="s">
+      <c r="A11" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="62"/>
+      <c r="B11" s="67"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
@@ -31082,7 +31089,7 @@
   <dimension ref="A1:O1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -31159,10 +31166,10 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="61" t="s">
+      <c r="A11" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="62"/>
+      <c r="B11" s="67"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
@@ -31217,7 +31224,7 @@
       <c r="B16" s="5">
         <v>5</v>
       </c>
-      <c r="D16" s="72"/>
+      <c r="D16" s="61"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -32450,7 +32457,7 @@
   <dimension ref="A1:M1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -32458,7 +32465,8 @@
     <col min="1" max="1" width="24.33203125" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="5" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
     <col min="7" max="26" width="10.5" customWidth="1"/>
   </cols>
@@ -32530,10 +32538,10 @@
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="61" t="s">
+      <c r="A11" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="62"/>
+      <c r="B11" s="67"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
@@ -33824,7 +33832,7 @@
   <dimension ref="A1:L1000"/>
   <sheetViews>
     <sheetView zoomScale="135" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A32" sqref="A32:F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -33944,13 +33952,13 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="73"/>
+      <c r="G5" s="62"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F6" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="74"/>
+      <c r="G6" s="63"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="28"/>
@@ -33991,11 +33999,11 @@
         <f>_xlfn.T.DIST.2T(D8,8)</f>
         <v>1.8298345469430579E-4</v>
       </c>
-      <c r="F8" s="74" t="str">
+      <c r="F8" s="63" t="str">
         <f ca="1">_xlfn.FORMULATEXT(D8)</f>
         <v>=B8/C8</v>
       </c>
-      <c r="G8" s="74" t="str">
+      <c r="G8" s="63" t="str">
         <f ca="1">_xlfn.FORMULATEXT(E8)</f>
         <v>=T.DIST.2T(D8,8)</v>
       </c>
@@ -34018,11 +34026,11 @@
         <f>_xlfn.T.DIST.2T(D9,8)</f>
         <v>3.2074464893991312E-4</v>
       </c>
-      <c r="F9" s="75" t="str">
+      <c r="F9" s="64" t="str">
         <f ca="1">_xlfn.FORMULATEXT(D9)</f>
         <v>=B9/C9</v>
       </c>
-      <c r="G9" s="75" t="str">
+      <c r="G9" s="64" t="str">
         <f ca="1">_xlfn.FORMULATEXT(E9)</f>
         <v>=T.DIST.2T(D9,8)</v>
       </c>
